--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H2">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7209849999999999</v>
+        <v>0.5550926666666666</v>
       </c>
       <c r="N2">
-        <v>2.162955</v>
+        <v>1.665278</v>
       </c>
       <c r="O2">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="P2">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="Q2">
-        <v>117.087457147545</v>
+        <v>111.8177239294871</v>
       </c>
       <c r="R2">
-        <v>1053.787114327905</v>
+        <v>1006.359515365384</v>
       </c>
       <c r="S2">
-        <v>0.05995872753878048</v>
+        <v>0.05843545481650456</v>
       </c>
       <c r="T2">
-        <v>0.05995872753878048</v>
+        <v>0.05843545481650456</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H3">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>10.161911</v>
       </c>
       <c r="O3">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530269</v>
       </c>
       <c r="P3">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530268</v>
       </c>
       <c r="Q3">
-        <v>550.095734192189</v>
+        <v>682.3375789471899</v>
       </c>
       <c r="R3">
-        <v>4950.861607729701</v>
+        <v>6141.038210524709</v>
       </c>
       <c r="S3">
-        <v>0.281695760162526</v>
+        <v>0.3565866426445559</v>
       </c>
       <c r="T3">
-        <v>0.281695760162526</v>
+        <v>0.3565866426445559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H4">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I4">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J4">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4770616666666667</v>
+        <v>0.5311786666666667</v>
       </c>
       <c r="N4">
-        <v>1.431185</v>
+        <v>1.593536</v>
       </c>
       <c r="O4">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="P4">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="Q4">
-        <v>77.47447929231501</v>
+        <v>107.0004939233565</v>
       </c>
       <c r="R4">
-        <v>697.2703136308351</v>
+        <v>963.0044453102081</v>
       </c>
       <c r="S4">
-        <v>0.03967351677339084</v>
+        <v>0.05591799142634048</v>
       </c>
       <c r="T4">
-        <v>0.03967351677339084</v>
+        <v>0.05591799142634048</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H5">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I5">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J5">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1167496666666667</v>
+        <v>0.117885</v>
       </c>
       <c r="N5">
-        <v>0.350249</v>
+        <v>0.353655</v>
       </c>
       <c r="O5">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="P5">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="Q5">
-        <v>18.960063791651</v>
+        <v>23.74672406426</v>
       </c>
       <c r="R5">
-        <v>170.640574124859</v>
+        <v>213.72051657834</v>
       </c>
       <c r="S5">
-        <v>0.009709163788303655</v>
+        <v>0.01240993442123833</v>
       </c>
       <c r="T5">
-        <v>0.009709163788303655</v>
+        <v>0.01240993442123833</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>196.252094</v>
       </c>
       <c r="I6">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J6">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7209849999999999</v>
+        <v>0.5550926666666666</v>
       </c>
       <c r="N6">
-        <v>2.162955</v>
+        <v>1.665278</v>
       </c>
       <c r="O6">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="P6">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="Q6">
-        <v>47.16493866419666</v>
+        <v>36.31269939912578</v>
       </c>
       <c r="R6">
-        <v>424.4844479777699</v>
+        <v>326.8142945921319</v>
       </c>
       <c r="S6">
-        <v>0.02415245642568091</v>
+        <v>0.01897685832293492</v>
       </c>
       <c r="T6">
-        <v>0.02415245642568091</v>
+        <v>0.01897685832293492</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>196.252094</v>
       </c>
       <c r="I7">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J7">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>10.161911</v>
       </c>
       <c r="O7">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530269</v>
       </c>
       <c r="P7">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530268</v>
       </c>
       <c r="Q7">
         <v>221.5884791990704</v>
@@ -883,10 +883,10 @@
         <v>1994.296312791634</v>
       </c>
       <c r="S7">
-        <v>0.1134721307790257</v>
+        <v>0.1158011727394909</v>
       </c>
       <c r="T7">
-        <v>0.1134721307790257</v>
+        <v>0.1158011727394909</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>196.252094</v>
       </c>
       <c r="I8">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J8">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4770616666666667</v>
+        <v>0.5311786666666667</v>
       </c>
       <c r="N8">
-        <v>1.431185</v>
+        <v>1.593536</v>
       </c>
       <c r="O8">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="P8">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="Q8">
-        <v>31.20811701682112</v>
+        <v>34.74830854048712</v>
       </c>
       <c r="R8">
-        <v>280.87305315139</v>
+        <v>312.734776864384</v>
       </c>
       <c r="S8">
-        <v>0.01598120781504384</v>
+        <v>0.01815931448352553</v>
       </c>
       <c r="T8">
-        <v>0.01598120781504384</v>
+        <v>0.01815931448352553</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>196.252094</v>
       </c>
       <c r="I9">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J9">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1167496666666667</v>
+        <v>0.117885</v>
       </c>
       <c r="N9">
-        <v>0.350249</v>
+        <v>0.353655</v>
       </c>
       <c r="O9">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="P9">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="Q9">
-        <v>7.637455519045113</v>
+        <v>7.711726033730001</v>
       </c>
       <c r="R9">
-        <v>68.737099671406</v>
+        <v>69.40553430356999</v>
       </c>
       <c r="S9">
-        <v>0.003911026216744369</v>
+        <v>0.004030114389427801</v>
       </c>
       <c r="T9">
-        <v>0.003911026216744369</v>
+        <v>0.004030114389427801</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H10">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I10">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J10">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7209849999999999</v>
+        <v>0.5550926666666666</v>
       </c>
       <c r="N10">
-        <v>2.162955</v>
+        <v>1.665278</v>
       </c>
       <c r="O10">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="P10">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="Q10">
-        <v>44.11014132119499</v>
+        <v>33.54693723529689</v>
       </c>
       <c r="R10">
-        <v>396.9912718907549</v>
+        <v>301.922435117672</v>
       </c>
       <c r="S10">
-        <v>0.02258814060537557</v>
+        <v>0.01753148307938642</v>
       </c>
       <c r="T10">
-        <v>0.02258814060537558</v>
+        <v>0.01753148307938642</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H11">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I11">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J11">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>10.161911</v>
       </c>
       <c r="O11">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530269</v>
       </c>
       <c r="P11">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530268</v>
       </c>
       <c r="Q11">
-        <v>207.2365492131856</v>
+        <v>204.7111596428182</v>
       </c>
       <c r="R11">
-        <v>1865.128942918671</v>
+        <v>1842.400436785364</v>
       </c>
       <c r="S11">
-        <v>0.1061227230743648</v>
+        <v>0.1069811591522441</v>
       </c>
       <c r="T11">
-        <v>0.1061227230743648</v>
+        <v>0.1069811591522441</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H12">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I12">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J12">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4770616666666667</v>
+        <v>0.5311786666666667</v>
       </c>
       <c r="N12">
-        <v>1.431185</v>
+        <v>1.593536</v>
       </c>
       <c r="O12">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="P12">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="Q12">
-        <v>29.18681738953167</v>
+        <v>32.10169843965156</v>
       </c>
       <c r="R12">
-        <v>262.681356505785</v>
+        <v>288.915285956864</v>
       </c>
       <c r="S12">
-        <v>0.0149461306464094</v>
+        <v>0.01677620758839853</v>
       </c>
       <c r="T12">
-        <v>0.0149461306464094</v>
+        <v>0.01677620758839853</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H13">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I13">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J13">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1167496666666667</v>
+        <v>0.117885</v>
       </c>
       <c r="N13">
-        <v>0.350249</v>
+        <v>0.353655</v>
       </c>
       <c r="O13">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="P13">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="Q13">
-        <v>7.142789788787667</v>
+        <v>7.124361270580001</v>
       </c>
       <c r="R13">
-        <v>64.285108099089</v>
+        <v>64.11925143522001</v>
       </c>
       <c r="S13">
-        <v>0.003657715328748028</v>
+        <v>0.003723160126081294</v>
       </c>
       <c r="T13">
-        <v>0.003657715328748029</v>
+        <v>0.003723160126081295</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H14">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I14">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J14">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7209849999999999</v>
+        <v>0.5550926666666666</v>
       </c>
       <c r="N14">
-        <v>2.162955</v>
+        <v>1.665278</v>
       </c>
       <c r="O14">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="P14">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="Q14">
-        <v>91.06541153918332</v>
+        <v>49.66166609852777</v>
       </c>
       <c r="R14">
-        <v>819.5887038526499</v>
+        <v>446.95499488675</v>
       </c>
       <c r="S14">
-        <v>0.04663322897007072</v>
+        <v>0.02595297009660897</v>
       </c>
       <c r="T14">
-        <v>0.04663322897007073</v>
+        <v>0.02595297009660897</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H15">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I15">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J15">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>10.161911</v>
       </c>
       <c r="O15">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530269</v>
       </c>
       <c r="P15">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530268</v>
       </c>
       <c r="Q15">
-        <v>427.8399722784589</v>
+        <v>303.0469573278195</v>
       </c>
       <c r="R15">
-        <v>3850.55975050613</v>
+        <v>2727.422615950375</v>
       </c>
       <c r="S15">
-        <v>0.2190904214079722</v>
+        <v>0.158371018116736</v>
       </c>
       <c r="T15">
-        <v>0.2190904214079722</v>
+        <v>0.158371018116736</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H16">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I16">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J16">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4770616666666667</v>
+        <v>0.5311786666666667</v>
       </c>
       <c r="N16">
-        <v>1.431185</v>
+        <v>1.593536</v>
       </c>
       <c r="O16">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="P16">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="Q16">
-        <v>60.25620089817223</v>
+        <v>47.52218713511112</v>
       </c>
       <c r="R16">
-        <v>542.3058080835501</v>
+        <v>427.699684216</v>
       </c>
       <c r="S16">
-        <v>0.03085629511641744</v>
+        <v>0.02483488772197187</v>
       </c>
       <c r="T16">
-        <v>0.03085629511641745</v>
+        <v>0.02483488772197187</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H17">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I17">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J17">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1167496666666667</v>
+        <v>0.117885</v>
       </c>
       <c r="N17">
-        <v>0.350249</v>
+        <v>0.353655</v>
       </c>
       <c r="O17">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="P17">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="Q17">
-        <v>14.74629353185222</v>
+        <v>10.546645379375</v>
       </c>
       <c r="R17">
-        <v>132.71664178667</v>
+        <v>94.91980841437501</v>
       </c>
       <c r="S17">
-        <v>0.007551355351146143</v>
+        <v>0.005511630874554427</v>
       </c>
       <c r="T17">
-        <v>0.007551355351146144</v>
+        <v>0.005511630874554427</v>
       </c>
     </row>
   </sheetData>
